--- a/data_ext/ppp.xlsx
+++ b/data_ext/ppp.xlsx
@@ -2091,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="G202" sqref="G202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,7 +2105,7 @@
         <v>533</v>
       </c>
       <c r="C1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>298</v>
       </c>
       <c r="C2">
-        <v>0.19222191743484773</v>
+        <v>0.16828160953149779</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2127,7 +2127,7 @@
         <v>136</v>
       </c>
       <c r="C3">
-        <v>0.369146777376543</v>
+        <v>0.3520697002745925</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2138,7 +2138,7 @@
         <v>292</v>
       </c>
       <c r="C4">
-        <v>0.32164424644457351</v>
+        <v>0.313306579243738</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2157,7 +2157,7 @@
         <v>102</v>
       </c>
       <c r="C6">
-        <v>0.71783827489833996</v>
+        <v>0.61945395009032711</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>326</v>
       </c>
       <c r="C7">
-        <v>0.29087997826277934</v>
+        <v>0.36968272066027436</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2179,7 +2179,7 @@
         <v>178</v>
       </c>
       <c r="C8">
-        <v>0.71171195418746291</v>
+        <v>0.67165341129174438</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2190,7 +2190,7 @@
         <v>160</v>
       </c>
       <c r="C9">
-        <v>0.42335537554865543</v>
+        <v>0.47083672075807498</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2201,7 +2201,7 @@
         <v>123</v>
       </c>
       <c r="C10">
-        <v>0.30697812531996965</v>
+        <v>0.34298040473177632</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2212,7 +2212,7 @@
         <v>67</v>
       </c>
       <c r="C11">
-        <v>0.79509039830894968</v>
+        <v>0.73373196893843018</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>427</v>
       </c>
       <c r="C12">
-        <v>1.0436587091057201</v>
+        <v>0.98672029244089898</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2234,7 +2234,7 @@
         <v>296</v>
       </c>
       <c r="C13">
-        <v>0.82654385377254769</v>
+        <v>0.73763635089299895</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
         <v>171</v>
       </c>
       <c r="C14">
-        <v>0.28819562757716471</v>
+        <v>0.34456206422568825</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>294</v>
       </c>
       <c r="C15">
-        <v>0.93145245313644398</v>
+        <v>0.95014870117946904</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2267,7 +2267,7 @@
         <v>211</v>
       </c>
       <c r="C16">
-        <v>0.48162498848235374</v>
+        <v>0.49402855047092825</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2278,7 +2278,7 @@
         <v>234</v>
       </c>
       <c r="C17">
-        <v>0.35220031278480995</v>
+        <v>0.32145673845081413</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2289,7 +2289,7 @@
         <v>45</v>
       </c>
       <c r="C18">
-        <v>1.0971919298171999</v>
+        <v>1.1201668386524599</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>462</v>
       </c>
       <c r="C19">
-        <v>0.30660470409034113</v>
+        <v>0.28120964139832028</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2311,7 +2311,7 @@
         <v>451</v>
       </c>
       <c r="C20">
-        <v>0.82374516749803794</v>
+        <v>0.74565531627237647</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2322,7 +2322,7 @@
         <v>377</v>
       </c>
       <c r="C21">
-        <v>0.58777493238448997</v>
+        <v>0.52491199389808496</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2333,7 +2333,7 @@
         <v>404</v>
       </c>
       <c r="C22">
-        <v>0.35910722283860536</v>
+        <v>0.32944233189882793</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>395</v>
       </c>
       <c r="C23">
-        <v>1.2727233171462999</v>
+        <v>1.1566592398023501</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
         <v>193</v>
       </c>
       <c r="C24">
-        <v>0.27708202727884124</v>
+        <v>0.24637376187225868</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2366,7 +2366,7 @@
         <v>98</v>
       </c>
       <c r="C25">
-        <v>0.38191909900449927</v>
+        <v>0.35132484585484952</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2377,7 +2377,7 @@
         <v>478</v>
       </c>
       <c r="C26">
-        <v>0.37267036202962422</v>
+        <v>0.36252742278968508</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2388,7 +2388,7 @@
         <v>343</v>
       </c>
       <c r="C27">
-        <v>0.44937860576612465</v>
+        <v>0.41691836150681455</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
         <v>173</v>
       </c>
       <c r="C28">
-        <v>0.5619119034202128</v>
+        <v>0.46694178296304389</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
         <v>170</v>
       </c>
       <c r="C30">
-        <v>0.4387160578492324</v>
+        <v>0.44782574791516044</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,7 +2429,7 @@
         <v>312</v>
       </c>
       <c r="C31">
-        <v>0.38683605426290613</v>
+        <v>0.39087222847252734</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>317</v>
       </c>
       <c r="C32">
-        <v>0.34265111436544715</v>
+        <v>0.31648728699879736</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2451,7 +2451,7 @@
         <v>192</v>
       </c>
       <c r="C33">
-        <v>0.26981139202533994</v>
+        <v>0.28208115163764635</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2462,7 +2462,7 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>0.50669726694533745</v>
+        <v>0.45599411151877151</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,7 +2473,7 @@
         <v>391</v>
       </c>
       <c r="C35">
-        <v>0.36169630842734246</v>
+        <v>0.33604455008707723</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
         <v>213</v>
       </c>
       <c r="C36">
-        <v>0.36670257628933378</v>
+        <v>0.30928584039346591</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>125</v>
       </c>
       <c r="C37">
-        <v>0.91789726590000653</v>
+        <v>0.88484251477385401</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2506,7 +2506,7 @@
         <v>117</v>
       </c>
       <c r="C38">
-        <v>1.2139956873578774</v>
+        <v>1.1271229385432651</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>220</v>
       </c>
       <c r="C39">
-        <v>0.45614213008446386</v>
+        <v>0.38375819084894686</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>318</v>
       </c>
       <c r="C40">
-        <v>0.3798758960506789</v>
+        <v>0.33955010186699608</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>226</v>
       </c>
       <c r="C42">
-        <v>0.56597898588734163</v>
+        <v>0.49985205324557935</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
         <v>169</v>
       </c>
       <c r="C43">
-        <v>0.58763508593498626</v>
+        <v>0.56315153584586564</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2569,7 +2569,7 @@
         <v>282</v>
       </c>
       <c r="C44">
-        <v>0.39999438186393493</v>
+        <v>0.32279320305736425</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2580,7 +2580,7 @@
         <v>143</v>
       </c>
       <c r="C45">
-        <v>0.45861114187085134</v>
+        <v>0.4116522123583562</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>383</v>
       </c>
       <c r="C46">
-        <v>0.47719894074547603</v>
+        <v>0.43295677314827652</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2602,7 +2602,7 @@
         <v>507</v>
       </c>
       <c r="C47">
-        <v>0.43506971918375259</v>
+        <v>0.39425939042512342</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2613,7 +2613,7 @@
         <v>57</v>
       </c>
       <c r="C48">
-        <v>0.55205234682595306</v>
+        <v>0.52559449583734841</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>189</v>
       </c>
       <c r="C49">
-        <v>0.38825538942465315</v>
+        <v>0.34725661042596501</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2635,7 +2635,7 @@
         <v>5</v>
       </c>
       <c r="C50">
-        <v>0.47072207602074767</v>
+        <v>0.44009296812195947</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2654,7 +2654,7 @@
         <v>257</v>
       </c>
       <c r="C52">
-        <v>0.75680943174735194</v>
+        <v>0.69370312772656417</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2665,7 +2665,7 @@
         <v>471</v>
       </c>
       <c r="C53">
-        <v>0.65837165883023951</v>
+        <v>0.60584273676612432</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2676,7 +2676,7 @@
         <v>341</v>
       </c>
       <c r="C54">
-        <v>0.52752904752041341</v>
+        <v>0.54694087425611171</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2687,7 +2687,7 @@
         <v>269</v>
       </c>
       <c r="C55">
-        <v>0.98034985170954847</v>
+        <v>0.87972899973922791</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>290</v>
       </c>
       <c r="C56">
-        <v>0.52559630050511918</v>
+        <v>0.47320668458800308</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2709,7 +2709,7 @@
         <v>502</v>
       </c>
       <c r="C57">
-        <v>0.5924343179773407</v>
+        <v>0.49588449296251474</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>118</v>
       </c>
       <c r="C58">
-        <v>0.41397857071993649</v>
+        <v>0.41031118993196353</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2731,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>0.49470224976539601</v>
+        <v>0.42871128956731203</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2742,7 +2742,7 @@
         <v>470</v>
       </c>
       <c r="C60">
-        <v>0.2217186610628098</v>
+        <v>0.24153339035723587</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2753,7 +2753,7 @@
         <v>486</v>
       </c>
       <c r="C61">
-        <v>0.442782253026962</v>
+        <v>0.42730019706592098</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2764,7 +2764,7 @@
         <v>19</v>
       </c>
       <c r="C62">
-        <v>0.41359179516036509</v>
+        <v>0.41837398646942892</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2774,9 +2774,6 @@
       <c r="B63" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C63">
-        <v>0.31117178527570288</v>
-      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -2786,7 +2783,7 @@
         <v>43</v>
       </c>
       <c r="C64">
-        <v>0.59185497858823433</v>
+        <v>0.59518730246692841</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2797,7 +2794,7 @@
         <v>256</v>
       </c>
       <c r="C65">
-        <v>0.42311953963791404</v>
+        <v>0.36469485560631892</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2808,7 +2805,7 @@
         <v>372</v>
       </c>
       <c r="C66">
-        <v>0.36955605320188661</v>
+        <v>0.35539570478127536</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2819,7 +2816,7 @@
         <v>364</v>
       </c>
       <c r="C67">
-        <v>1.0135775870955164</v>
+        <v>0.88996608102636576</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2830,7 +2827,7 @@
         <v>434</v>
       </c>
       <c r="C68">
-        <v>0.45014862576553294</v>
+        <v>0.39532891192852937</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2841,7 +2838,7 @@
         <v>424</v>
       </c>
       <c r="C69">
-        <v>0.92505313273725331</v>
+        <v>0.82221511141050907</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2852,7 +2849,7 @@
         <v>482</v>
       </c>
       <c r="C70">
-        <v>0.79029750809411636</v>
+        <v>0.73125803529183164</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2871,7 +2868,7 @@
         <v>324</v>
       </c>
       <c r="C72">
-        <v>0.46654218354680593</v>
+        <v>0.4206169019532684</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2882,7 +2879,7 @@
         <v>503</v>
       </c>
       <c r="C73">
-        <v>0.3048187992205757</v>
+        <v>0.27263131711847538</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2893,7 +2890,7 @@
         <v>217</v>
       </c>
       <c r="C74">
-        <v>0.28272185825597973</v>
+        <v>0.29961920366569128</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2904,7 +2901,7 @@
         <v>50</v>
       </c>
       <c r="C75">
-        <v>0.8034972320392143</v>
+        <v>0.73511219330739586</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2915,7 +2912,7 @@
         <v>289</v>
       </c>
       <c r="C76">
-        <v>0.36428818819802472</v>
+        <v>0.30935659701480506</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2934,7 +2931,7 @@
         <v>414</v>
       </c>
       <c r="C78">
-        <v>0.6056043645176461</v>
+        <v>0.53816682480934053</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2945,7 +2942,7 @@
         <v>177</v>
       </c>
       <c r="C79">
-        <v>0.82953374757901521</v>
+        <v>0.73474227206522547</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2956,7 +2953,7 @@
         <v>284</v>
       </c>
       <c r="C80">
-        <v>0.63618633482191478</v>
+        <v>0.60014922797998882</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2975,7 +2972,7 @@
         <v>283</v>
       </c>
       <c r="C82">
-        <v>0.41949132496240077</v>
+        <v>0.41176387784506657</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2986,7 +2983,7 @@
         <v>60</v>
       </c>
       <c r="C83">
-        <v>0.33206652180460594</v>
+        <v>0.348712483468126</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2997,7 +2994,7 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>0.36097170816336233</v>
+        <v>0.31793121410994618</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,7 +3005,7 @@
         <v>323</v>
       </c>
       <c r="C85">
-        <v>0.48378810379430692</v>
+        <v>0.4510968380986633</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3019,7 +3016,7 @@
         <v>25</v>
       </c>
       <c r="C86">
-        <v>0.41772706716165831</v>
+        <v>0.53925335168939714</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3030,7 +3027,7 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>0.43255961483724104</v>
+        <v>0.44130376903009466</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,7 +3038,7 @@
         <v>222</v>
       </c>
       <c r="C88">
-        <v>0.78990329787123315</v>
+        <v>0.71172470290366485</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,7 +3049,7 @@
         <v>232</v>
       </c>
       <c r="C89">
-        <v>0.47752404871671367</v>
+        <v>0.41996556053811696</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,7 +3060,7 @@
         <v>446</v>
       </c>
       <c r="C90">
-        <v>1.1309966645908314</v>
+        <v>1.0230814995607267</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,7 +3071,7 @@
         <v>182</v>
       </c>
       <c r="C91">
-        <v>0.28547759283038032</v>
+        <v>0.25495990058691731</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3085,7 +3082,7 @@
         <v>398</v>
       </c>
       <c r="C92">
-        <v>0.34263202677033117</v>
+        <v>0.33117663736951586</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3096,7 +3093,7 @@
         <v>78</v>
       </c>
       <c r="C93">
-        <v>0.28702135120817257</v>
+        <v>0.26820456029984568</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3107,7 +3104,7 @@
         <v>430</v>
       </c>
       <c r="C94">
-        <v>0.4630619571898798</v>
+        <v>0.45310770538811312</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3118,7 +3115,7 @@
         <v>353</v>
       </c>
       <c r="C95">
-        <v>0.8890228456392143</v>
+        <v>0.77318937901362161</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3137,7 +3134,7 @@
         <v>419</v>
       </c>
       <c r="C97">
-        <v>1.0707910555459716</v>
+        <v>1.0258641582132746</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3148,7 +3145,7 @@
         <v>311</v>
       </c>
       <c r="C98">
-        <v>0.72463361124705772</v>
+        <v>0.63387630943190909</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3159,7 +3156,7 @@
         <v>374</v>
       </c>
       <c r="C99">
-        <v>0.55607954311670937</v>
+        <v>0.55811668215759047</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3170,7 +3167,7 @@
         <v>24</v>
       </c>
       <c r="C100">
-        <v>0.94699408668844243</v>
+        <v>0.71874756312937749</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3181,7 +3178,7 @@
         <v>359</v>
       </c>
       <c r="C101">
-        <v>0.44226134327096056</v>
+        <v>0.4364006686283296</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3192,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>0.32963981967109623</v>
+        <v>0.31356214817082351</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3203,7 +3200,7 @@
         <v>119</v>
       </c>
       <c r="C103">
-        <v>0.41823129316006258</v>
+        <v>0.35857265157635676</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3214,7 +3211,7 @@
         <v>52</v>
       </c>
       <c r="C104">
-        <v>0.63374477784512906</v>
+        <v>0.62167411563553365</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3233,7 +3230,7 @@
         <v>333</v>
       </c>
       <c r="C106">
-        <v>0.72728568615210343</v>
+        <v>0.63232021411845118</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3244,7 +3241,7 @@
         <v>69</v>
       </c>
       <c r="C107">
-        <v>0.40659014278684774</v>
+        <v>0.37925500946611479</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3255,7 +3252,7 @@
         <v>215</v>
       </c>
       <c r="C108">
-        <v>0.62536484350728394</v>
+        <v>0.72637333444192642</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3266,7 +3263,7 @@
         <v>270</v>
       </c>
       <c r="C109">
-        <v>0.26808790775868968</v>
+        <v>0.26449516725336442</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3277,7 +3274,7 @@
         <v>254</v>
       </c>
       <c r="C110">
-        <v>0.33439849609082711</v>
+        <v>0.23343617892773566</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3288,7 +3285,7 @@
         <v>121</v>
       </c>
       <c r="C111">
-        <v>0.53712610875294031</v>
+        <v>0.50617626023151951</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3299,7 +3296,7 @@
         <v>496</v>
       </c>
       <c r="C112">
-        <v>0.41021139373190152</v>
+        <v>0.29727534387287635</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3310,7 +3307,7 @@
         <v>401</v>
       </c>
       <c r="C113">
-        <v>0.42130581852806398</v>
+        <v>0.37305677543283761</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3321,7 +3318,7 @@
         <v>183</v>
       </c>
       <c r="C114">
-        <v>0.34648936806189501</v>
+        <v>0.440192224697317</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3332,7 +3329,7 @@
         <v>218</v>
       </c>
       <c r="C115">
-        <v>0.61523578600536744</v>
+        <v>0.48779574132543274</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3351,7 +3348,7 @@
         <v>468</v>
       </c>
       <c r="C117">
-        <v>0.48340588545097962</v>
+        <v>0.49676411150389299</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3362,7 +3359,7 @@
         <v>400</v>
       </c>
       <c r="C118">
-        <v>0.92852462319215534</v>
+        <v>0.86286805408560652</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3373,7 +3370,7 @@
         <v>325</v>
       </c>
       <c r="C119">
-        <v>0.64970992463408195</v>
+        <v>0.57336811469310156</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3384,7 +3381,7 @@
         <v>126</v>
       </c>
       <c r="C120">
-        <v>0.31000405768983141</v>
+        <v>0.29325610728580348</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3395,7 +3392,7 @@
         <v>112</v>
       </c>
       <c r="C121">
-        <v>0.40061088113762938</v>
+        <v>0.33980080585261935</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3406,7 +3403,7 @@
         <v>514</v>
       </c>
       <c r="C122">
-        <v>0.37741822167356187</v>
+        <v>0.34184990468772497</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3417,7 +3414,7 @@
         <v>70</v>
       </c>
       <c r="C123">
-        <v>0.50873878516738091</v>
+        <v>0.5151112436177524</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3428,7 +3425,7 @@
         <v>21</v>
       </c>
       <c r="C124">
-        <v>0.34467927896423922</v>
+        <v>0.32230009740679932</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3439,7 +3436,7 @@
         <v>84</v>
       </c>
       <c r="C125">
-        <v>0.63087665427547035</v>
+        <v>0.59885277676922544</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,7 +3447,7 @@
         <v>467</v>
       </c>
       <c r="C126">
-        <v>0.87548142565211196</v>
+        <v>0.86232537883925497</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3461,7 +3458,7 @@
         <v>8</v>
       </c>
       <c r="C127">
-        <v>0.31497879104805826</v>
+        <v>0.30229829114635437</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,7 +3469,7 @@
         <v>285</v>
       </c>
       <c r="C128">
-        <v>0.47459925677701481</v>
+        <v>0.38498865197108828</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,7 +3480,7 @@
         <v>458</v>
       </c>
       <c r="C129">
-        <v>0.49462975130392073</v>
+        <v>0.48769336251419088</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,7 +3491,7 @@
         <v>512</v>
       </c>
       <c r="C130">
-        <v>0.96112067171583904</v>
+        <v>0.90818462422690704</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,7 +3502,7 @@
         <v>497</v>
       </c>
       <c r="C131">
-        <v>0.32843218108150024</v>
+        <v>0.34913446838266432</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3524,7 +3521,7 @@
         <v>316</v>
       </c>
       <c r="C133">
-        <v>0.31955551870395371</v>
+        <v>0.3044456821655388</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3535,7 +3532,7 @@
         <v>375</v>
       </c>
       <c r="C134">
-        <v>0.36907850543755177</v>
+        <v>0.36200258265470031</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3546,7 +3543,7 @@
         <v>48</v>
       </c>
       <c r="C135">
-        <v>0.43599276132242792</v>
+        <v>0.37219127628519899</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3557,7 +3554,7 @@
         <v>387</v>
       </c>
       <c r="C136">
-        <v>0.37377134643930959</v>
+        <v>0.3655322771743495</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3568,7 +3565,7 @@
         <v>450</v>
       </c>
       <c r="C137">
-        <v>0.23371619287549697</v>
+        <v>0.20203464776575603</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3579,7 +3576,7 @@
         <v>527</v>
       </c>
       <c r="C138">
-        <v>0.49242188917904406</v>
+        <v>0.40794530368090992</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3590,7 +3587,7 @@
         <v>65</v>
       </c>
       <c r="C139">
-        <v>1.0129068642953234</v>
+        <v>0.96624331580622602</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -3601,7 +3598,7 @@
         <v>66</v>
       </c>
       <c r="C140">
-        <v>0.28238326207744691</v>
+        <v>0.27158784066195002</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3612,7 +3609,7 @@
         <v>447</v>
       </c>
       <c r="C141">
-        <v>0.85900525613333201</v>
+        <v>0.76632034274708472</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -3631,7 +3628,7 @@
         <v>34</v>
       </c>
       <c r="C143">
-        <v>0.94649493535370166</v>
+        <v>0.90889940928448576</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -3642,7 +3639,7 @@
         <v>241</v>
       </c>
       <c r="C144">
-        <v>0.32746779777133422</v>
+        <v>0.29793277160275283</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3653,7 +3650,7 @@
         <v>474</v>
       </c>
       <c r="C145">
-        <v>0.39578914144232852</v>
+        <v>0.33138879817911215</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -3664,7 +3661,7 @@
         <v>286</v>
       </c>
       <c r="C146">
-        <v>0.42241378848949568</v>
+        <v>0.35963578283464215</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -3675,7 +3672,7 @@
         <v>152</v>
       </c>
       <c r="C147">
-        <v>0.33225164402030488</v>
+        <v>0.31603778658847193</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -3694,7 +3691,7 @@
         <v>113</v>
       </c>
       <c r="C149">
-        <v>1.0774036363636363</v>
+        <v>0.88728678165900998</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3705,7 +3702,7 @@
         <v>393</v>
       </c>
       <c r="C150">
-        <v>0.51489588653157603</v>
+        <v>0.54494557069473337</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -3716,7 +3713,7 @@
         <v>361</v>
       </c>
       <c r="C151">
-        <v>0.27601141858543843</v>
+        <v>0.25983978675066977</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3727,7 +3724,7 @@
         <v>225</v>
       </c>
       <c r="C152">
-        <v>0.86909329963285797</v>
+        <v>0.867992414569832</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3738,7 +3735,7 @@
         <v>157</v>
       </c>
       <c r="C153">
-        <v>0.49572920799255399</v>
+        <v>0.47820020477302499</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3749,7 +3746,7 @@
         <v>436</v>
       </c>
       <c r="C154">
-        <v>0.63445356783966711</v>
+        <v>0.70193595798167208</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -3760,7 +3757,7 @@
         <v>437</v>
       </c>
       <c r="C155">
-        <v>0.4114026264509727</v>
+        <v>0.37961763267790216</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3771,7 +3768,7 @@
         <v>95</v>
       </c>
       <c r="C156">
-        <v>0.51881805496074729</v>
+        <v>0.44097195307559928</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3782,7 +3779,7 @@
         <v>261</v>
       </c>
       <c r="C157">
-        <v>0.3810792185299931</v>
+        <v>0.35020708760875857</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3793,7 +3790,7 @@
         <v>104</v>
       </c>
       <c r="C158">
-        <v>0.44240455803353412</v>
+        <v>0.40998883295145228</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3804,7 +3801,7 @@
         <v>141</v>
       </c>
       <c r="C159">
-        <v>0.61648005938039119</v>
+        <v>0.5525588405466948</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3815,7 +3812,7 @@
         <v>96</v>
       </c>
       <c r="C160">
-        <v>0.87886614931829998</v>
+        <v>0.77996082306130998</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3826,7 +3823,7 @@
         <v>306</v>
       </c>
       <c r="C161">
-        <v>0.62176526247800001</v>
+        <v>0.72161652651516761</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3837,7 +3834,7 @@
         <v>32</v>
       </c>
       <c r="C162">
-        <v>0.38622896842746157</v>
+        <v>0.36851371311073428</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3848,7 +3845,7 @@
         <v>16</v>
       </c>
       <c r="C163">
-        <v>0.36971177847462294</v>
+        <v>0.3815339574390893</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3859,7 +3856,7 @@
         <v>492</v>
       </c>
       <c r="C164">
-        <v>0.34676269478231653</v>
+        <v>0.3148018725348164</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3870,7 +3867,7 @@
         <v>342</v>
       </c>
       <c r="C165">
-        <v>0.65559225089883699</v>
+        <v>0.6180858926147591</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3881,7 +3878,7 @@
         <v>388</v>
       </c>
       <c r="C166">
-        <v>0.81169339449590949</v>
+        <v>0.71455762272917178</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3892,7 +3889,7 @@
         <v>287</v>
       </c>
       <c r="C167">
-        <v>0.41570173599911048</v>
+        <v>0.3960662205438964</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3903,7 +3900,7 @@
         <v>340</v>
       </c>
       <c r="C168">
-        <v>0.49641819000244264</v>
+        <v>0.53510153835166663</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3914,7 +3911,7 @@
         <v>202</v>
       </c>
       <c r="C169">
-        <v>0.39232466191566701</v>
+        <v>0.34745065343651466</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3925,7 +3922,7 @@
         <v>185</v>
       </c>
       <c r="C170">
-        <v>0.37672488800779197</v>
+        <v>0.38193873861315875</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3936,7 +3933,7 @@
         <v>103</v>
       </c>
       <c r="C171">
-        <v>0.55938155834622127</v>
+        <v>0.56173028854947471</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3947,7 +3944,7 @@
         <v>275</v>
       </c>
       <c r="C172">
-        <v>0.31201712607479332</v>
+        <v>0.27354026981725837</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3958,7 +3955,7 @@
         <v>165</v>
       </c>
       <c r="C173">
-        <v>0.62611529962948353</v>
+        <v>0.63104302093644948</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3969,7 +3966,7 @@
         <v>385</v>
       </c>
       <c r="C174">
-        <v>0.76257110308002229</v>
+        <v>0.77600821114134078</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3980,7 +3977,7 @@
         <v>421</v>
       </c>
       <c r="C175">
-        <v>0.57100700479215605</v>
+        <v>0.51914034201556625</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3991,7 +3988,7 @@
         <v>14</v>
       </c>
       <c r="C176">
-        <v>0.60920907243921474</v>
+        <v>0.55548736880934069</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4002,7 +3999,7 @@
         <v>455</v>
       </c>
       <c r="C177">
-        <v>0.88521771329961507</v>
+        <v>0.74345070591767626</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -4013,7 +4010,7 @@
         <v>319</v>
       </c>
       <c r="C178">
-        <v>0.34874662756919911</v>
+        <v>0.38548857625330013</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4024,7 +4021,7 @@
         <v>490</v>
       </c>
       <c r="C179">
-        <v>0.48899588236573222</v>
+        <v>0.44198242998661152</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -4043,7 +4040,7 @@
         <v>370</v>
       </c>
       <c r="C181">
-        <v>0.67630925508235185</v>
+        <v>0.59979017806420476</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4054,7 +4051,7 @@
         <v>381</v>
       </c>
       <c r="C182">
-        <v>0.28923414331616337</v>
+        <v>0.23550217273975754</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,7 +4062,7 @@
         <v>528</v>
       </c>
       <c r="C183">
-        <v>0.72641536041542221</v>
+        <v>0.65926238618578514</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -4076,7 +4073,7 @@
         <v>422</v>
       </c>
       <c r="C184">
-        <v>0.63036428557501845</v>
+        <v>0.53268935573616294</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4095,7 +4092,7 @@
         <v>280</v>
       </c>
       <c r="C186">
-        <v>0.56980751178882594</v>
+        <v>0.53747778150906289</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4106,7 +4103,7 @@
         <v>97</v>
       </c>
       <c r="C187">
-        <v>0.18138333785632396</v>
+        <v>0.31181012967683353</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4117,7 +4114,7 @@
         <v>349</v>
       </c>
       <c r="C188">
-        <v>0.33531355043748706</v>
+        <v>0.30302745633795342</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -4128,7 +4125,7 @@
         <v>367</v>
       </c>
       <c r="C189">
-        <v>0.90755953800606048</v>
+        <v>0.83309112743631675</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4139,7 +4136,7 @@
         <v>194</v>
       </c>
       <c r="C190">
-        <v>1.1409111720459864</v>
+        <v>1.0335980394467092</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4150,7 +4147,7 @@
         <v>41</v>
       </c>
       <c r="C191">
-        <v>0.31681432932057241</v>
+        <v>0.22036248106827822</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4161,7 +4158,7 @@
         <v>186</v>
       </c>
       <c r="C192">
-        <v>0.25174248732351123</v>
+        <v>0.23308344624452376</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -4172,7 +4169,7 @@
         <v>449</v>
       </c>
       <c r="C193">
-        <v>0.35659533766959273</v>
+        <v>0.31786758359492306</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -4183,7 +4180,7 @@
         <v>331</v>
       </c>
       <c r="C194">
-        <v>0.38098218171863241</v>
+        <v>0.31062939313757293</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -4194,7 +4191,7 @@
         <v>332</v>
       </c>
       <c r="C195">
-        <v>0.34287839446274199</v>
+        <v>0.40907029251796601</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4205,7 +4202,7 @@
         <v>281</v>
       </c>
       <c r="C196">
-        <v>0.37307785437373919</v>
+        <v>0.31512547374122041</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -4216,7 +4213,7 @@
         <v>368</v>
       </c>
       <c r="C197">
-        <v>0.72077950031852833</v>
+        <v>0.66719102648722062</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4227,7 +4224,7 @@
         <v>51</v>
       </c>
       <c r="C198">
-        <v>0.58714446526580522</v>
+        <v>0.6327714526283359</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -4238,7 +4235,7 @@
         <v>92</v>
       </c>
       <c r="C199">
-        <v>0.28242747346209474</v>
+        <v>0.27254764421917227</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4249,7 +4246,7 @@
         <v>320</v>
       </c>
       <c r="C200">
-        <v>0.3237898494823328</v>
+        <v>0.27299771706329018</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -4260,7 +4257,7 @@
         <v>36</v>
       </c>
       <c r="C201">
-        <v>0.42952277720285714</v>
+        <v>0.44472751526685711</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -4271,7 +4268,7 @@
         <v>493</v>
       </c>
       <c r="C202">
-        <v>1.01947629451752</v>
+        <v>1.0350658138170901</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -4282,7 +4279,7 @@
         <v>520</v>
       </c>
       <c r="C203">
-        <v>0.98184746503050735</v>
+        <v>1.0441930870547507</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4293,7 +4290,7 @@
         <v>389</v>
       </c>
       <c r="C204">
-        <v>0.33676568924288608</v>
+        <v>0.3299104732113029</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -4304,7 +4301,7 @@
         <v>321</v>
       </c>
       <c r="C205">
-        <v>0.25460629205030849</v>
+        <v>0.28433653885715282</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -4315,7 +4312,7 @@
         <v>216</v>
       </c>
       <c r="C206">
-        <v>0.57555420046521444</v>
+        <v>0.67634305856093124</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -4326,7 +4323,7 @@
         <v>231</v>
       </c>
       <c r="C207">
-        <v>0.85476951919427191</v>
+        <v>0.7868034635532668</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -4348,7 +4345,7 @@
         <v>187</v>
       </c>
       <c r="C209">
-        <v>0.71038872958035193</v>
+        <v>0.6308495468989872</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -4359,7 +4356,7 @@
         <v>300</v>
       </c>
       <c r="C210">
-        <v>0.23892387985957905</v>
+        <v>0.25053768682220517</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -4370,7 +4367,7 @@
         <v>418</v>
       </c>
       <c r="C211">
-        <v>0.96765264743140778</v>
+        <v>0.95358107108385404</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -4389,7 +4386,7 @@
         <v>521</v>
       </c>
       <c r="C213">
-        <v>0.31197887555590376</v>
+        <v>0.29828492840451781</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -4400,7 +4397,7 @@
         <v>262</v>
       </c>
       <c r="C214">
-        <v>0.96531269293322897</v>
+        <v>0.890102631117342</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4411,7 +4408,7 @@
         <v>330</v>
       </c>
       <c r="C215">
-        <v>0.56186330047757205</v>
+        <v>0.61655066726719299</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4430,7 +4427,7 @@
         <v>473</v>
       </c>
       <c r="C217">
-        <v>0.37454249231828313</v>
+        <v>0.37678388529415746</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4441,7 +4438,7 @@
         <v>258</v>
       </c>
       <c r="C218">
-        <v>0.52437883615493952</v>
+        <v>0.5731808995093205</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4986,14 +4983,14 @@
   <dimension ref="A1:C271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B1" t="s">
         <v>525</v>
@@ -5004,7 +5001,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.16828160953149779</v>
+        <v>0.19222191743484773</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>298</v>
@@ -5012,7 +5009,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.3520697002745925</v>
+        <v>0.369146777376543</v>
       </c>
       <c r="B3">
         <v>0.42624258389183872</v>
@@ -5023,7 +5020,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.313306579243738</v>
+        <v>0.32164424644457351</v>
       </c>
       <c r="B4">
         <v>0.32081424347380866</v>
@@ -5039,7 +5036,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.61945395009032711</v>
+        <v>0.71783827489833996</v>
       </c>
       <c r="B6">
         <v>0.65791325133480805</v>
@@ -5050,7 +5047,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.36968272066027436</v>
+        <v>0.29087997826277934</v>
       </c>
       <c r="B7">
         <v>0.25420408368422953</v>
@@ -5061,7 +5058,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.67165341129174438</v>
+        <v>0.71171195418746291</v>
       </c>
       <c r="B8">
         <v>0.70607524626164808</v>
@@ -5072,7 +5069,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.47083672075807498</v>
+        <v>0.42335537554865543</v>
       </c>
       <c r="B9">
         <v>0.45925295232426155</v>
@@ -5083,7 +5080,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.34298040473177632</v>
+        <v>0.30697812531996965</v>
       </c>
       <c r="B10">
         <v>0.3724549077548035</v>
@@ -5094,7 +5091,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.73373196893843018</v>
+        <v>0.79509039830894968</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>67</v>
@@ -5102,7 +5099,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.98672029244089898</v>
+        <v>1.0436587091057201</v>
       </c>
       <c r="B12">
         <v>0.9046856991507366</v>
@@ -5113,7 +5110,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.73763635089299895</v>
+        <v>0.82654385377254769</v>
       </c>
       <c r="B13">
         <v>0.79356131161015608</v>
@@ -5124,7 +5121,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.34456206422568825</v>
+        <v>0.28819562757716471</v>
       </c>
       <c r="B14">
         <v>0.29032046292224234</v>
@@ -5135,7 +5132,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.95014870117946904</v>
+        <v>0.93145245313644398</v>
       </c>
       <c r="B15">
         <v>0.95770485994128496</v>
@@ -5146,7 +5143,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.49402855047092825</v>
+        <v>0.48162498848235374</v>
       </c>
       <c r="B16">
         <v>0.44707298875671542</v>
@@ -5157,7 +5154,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.32145673845081413</v>
+        <v>0.35220031278480995</v>
       </c>
       <c r="B17">
         <v>0.26883776807032611</v>
@@ -5168,7 +5165,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1.1201668386524599</v>
+        <v>1.0971919298171999</v>
       </c>
       <c r="B18">
         <v>1.11881856875097</v>
@@ -5179,7 +5176,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.28120964139832028</v>
+        <v>0.30660470409034113</v>
       </c>
       <c r="B19">
         <v>0.25197063488061638</v>
@@ -5190,7 +5187,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.74565531627237647</v>
+        <v>0.82374516749803794</v>
       </c>
       <c r="B20">
         <v>0.77578970669374991</v>
@@ -5201,7 +5198,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.52491199389808496</v>
+        <v>0.58777493238448997</v>
       </c>
       <c r="B21">
         <v>0.55852395116883502</v>
@@ -5212,7 +5209,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.32944233189882793</v>
+        <v>0.35910722283860536</v>
       </c>
       <c r="B22">
         <v>0.33495516507458095</v>
@@ -5223,7 +5220,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.1566592398023501</v>
+        <v>1.2727233171462999</v>
       </c>
       <c r="B23">
         <v>1.1605128746887501</v>
@@ -5234,7 +5231,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.24637376187225868</v>
+        <v>0.27708202727884124</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>193</v>
@@ -5242,7 +5239,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.35132484585484952</v>
+        <v>0.38191909900449927</v>
       </c>
       <c r="B25">
         <v>0.35757648660096814</v>
@@ -5253,7 +5250,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.36252742278968508</v>
+        <v>0.37267036202962422</v>
       </c>
       <c r="B26">
         <v>0.4076879628076937</v>
@@ -5264,7 +5261,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.41691836150681455</v>
+        <v>0.44937860576612465</v>
       </c>
       <c r="B27">
         <v>0.37468071868330322</v>
@@ -5275,7 +5272,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.46694178296304389</v>
+        <v>0.5619119034202128</v>
       </c>
       <c r="B28">
         <v>0.46031099130703373</v>
@@ -5291,7 +5288,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.44782574791516044</v>
+        <v>0.4387160578492324</v>
       </c>
       <c r="B30">
         <v>0.3712800893841896</v>
@@ -5302,7 +5299,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.39087222847252734</v>
+        <v>0.38683605426290613</v>
       </c>
       <c r="B31">
         <v>0.42380087677890049</v>
@@ -5313,7 +5310,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.31648728699879736</v>
+        <v>0.34265111436544715</v>
       </c>
       <c r="B32">
         <v>0.34090382848453832</v>
@@ -5324,7 +5321,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.28208115163764635</v>
+        <v>0.26981139202533994</v>
       </c>
       <c r="B33">
         <v>0.1620600215322606</v>
@@ -5335,7 +5332,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.45599411151877151</v>
+        <v>0.50669726694533745</v>
       </c>
       <c r="B34">
         <v>0.46820812593555872</v>
@@ -5346,7 +5343,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.33604455008707723</v>
+        <v>0.36169630842734246</v>
       </c>
       <c r="B35">
         <v>0.32972416405955079</v>
@@ -5357,7 +5354,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.30928584039346591</v>
+        <v>0.36670257628933378</v>
       </c>
       <c r="B36">
         <v>0.31518724604247972</v>
@@ -5368,7 +5365,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.88484251477385401</v>
+        <v>0.91789726590000653</v>
       </c>
       <c r="B37">
         <v>0.82920940731514725</v>
@@ -5379,7 +5376,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1.1271229385432651</v>
+        <v>1.2139956873578774</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>117</v>
@@ -5387,7 +5384,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.38375819084894686</v>
+        <v>0.45614213008446386</v>
       </c>
       <c r="B39">
         <v>0.40849338815942304</v>
@@ -5398,7 +5395,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.33955010186699608</v>
+        <v>0.3798758960506789</v>
       </c>
       <c r="B40">
         <v>0.34304934506473567</v>
@@ -5414,7 +5411,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.49985205324557935</v>
+        <v>0.56597898588734163</v>
       </c>
       <c r="B42">
         <v>0.48242726091347282</v>
@@ -5425,7 +5422,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.56315153584586564</v>
+        <v>0.58763508593498626</v>
       </c>
       <c r="B43">
         <v>0.49080287132814754</v>
@@ -5436,7 +5433,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.32279320305736425</v>
+        <v>0.39999438186393493</v>
       </c>
       <c r="B44">
         <v>0.36818493550591713</v>
@@ -5447,7 +5444,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.4116522123583562</v>
+        <v>0.45861114187085134</v>
       </c>
       <c r="B45">
         <v>0.4399654465737074</v>
@@ -5458,7 +5455,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.43295677314827652</v>
+        <v>0.47719894074547603</v>
       </c>
       <c r="B46">
         <v>0.3786767023056018</v>
@@ -5469,7 +5466,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.39425939042512342</v>
+        <v>0.43506971918375259</v>
       </c>
       <c r="B47">
         <v>0.35327655176934147</v>
@@ -5480,7 +5477,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.52559449583734841</v>
+        <v>0.55205234682595306</v>
       </c>
       <c r="B48">
         <v>0.61827650204236473</v>
@@ -5491,7 +5488,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.34725661042596501</v>
+        <v>0.38825538942465315</v>
       </c>
       <c r="B49">
         <v>0.35407495925247839</v>
@@ -5502,7 +5499,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.44009296812195947</v>
+        <v>0.47072207602074767</v>
       </c>
       <c r="B50">
         <v>0.49266578057487875</v>
@@ -5518,7 +5515,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.69370312772656417</v>
+        <v>0.75680943174735194</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>257</v>
@@ -5526,7 +5523,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.60584273676612432</v>
+        <v>0.65837165883023951</v>
       </c>
       <c r="B53">
         <v>0.63119214190194717</v>
@@ -5537,7 +5534,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.54694087425611171</v>
+        <v>0.52752904752041341</v>
       </c>
       <c r="B54">
         <v>0.55815971170343437</v>
@@ -5548,7 +5545,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.87972899973922791</v>
+        <v>0.98034985170954847</v>
       </c>
       <c r="B55">
         <v>0.90363330082222726</v>
@@ -5559,7 +5556,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.47320668458800308</v>
+        <v>0.52559630050511918</v>
       </c>
       <c r="B56">
         <v>0.44963598761325901</v>
@@ -5570,7 +5567,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.49588449296251474</v>
+        <v>0.5924343179773407</v>
       </c>
       <c r="B57">
         <v>0.4884950339088111</v>
@@ -5581,7 +5578,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.41031118993196353</v>
+        <v>0.41397857071993649</v>
       </c>
       <c r="B58">
         <v>0.39488723556235489</v>
@@ -5592,7 +5589,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.42871128956731203</v>
+        <v>0.49470224976539601</v>
       </c>
       <c r="B59">
         <v>0.43400188910582099</v>
@@ -5603,7 +5600,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.24153339035723587</v>
+        <v>0.2217186610628098</v>
       </c>
       <c r="B60">
         <v>0.17484279729091079</v>
@@ -5614,7 +5611,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.42730019706592098</v>
+        <v>0.442782253026962</v>
       </c>
       <c r="B61">
         <v>0.42066105967543599</v>
@@ -5625,7 +5622,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.41837398646942892</v>
+        <v>0.41359179516036509</v>
       </c>
       <c r="B62">
         <v>0.38398658156319865</v>
@@ -5635,13 +5632,16 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.31117178527570288</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.59518730246692841</v>
+        <v>0.59185497858823433</v>
       </c>
       <c r="B64">
         <v>0.63182011578437491</v>
@@ -5652,7 +5652,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.36469485560631892</v>
+        <v>0.42311953963791404</v>
       </c>
       <c r="B65">
         <v>0.33401359023518989</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.35539570478127536</v>
+        <v>0.36955605320188661</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>372</v>
@@ -5671,7 +5671,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.88996608102636576</v>
+        <v>1.0135775870955164</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>364</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.39532891192852937</v>
+        <v>0.45014862576553294</v>
       </c>
       <c r="B68">
         <v>0.39223413848529737</v>
@@ -5690,7 +5690,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.82221511141050907</v>
+        <v>0.92505313273725331</v>
       </c>
       <c r="B69">
         <v>0.82988924728281233</v>
@@ -5701,7 +5701,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.73125803529183164</v>
+        <v>0.79029750809411636</v>
       </c>
       <c r="B70">
         <v>0.75259645800937491</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.4206169019532684</v>
+        <v>0.46654218354680593</v>
       </c>
       <c r="B72">
         <v>0.38209881044259703</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.27263131711847538</v>
+        <v>0.3048187992205757</v>
       </c>
       <c r="B73">
         <v>0.26370372373777562</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.29961920366569128</v>
+        <v>0.28272185825597973</v>
       </c>
       <c r="B74">
         <v>0.3235183313117258</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.73511219330739586</v>
+        <v>0.8034972320392143</v>
       </c>
       <c r="B75">
         <v>0.77178598133984366</v>
@@ -5761,7 +5761,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.30935659701480506</v>
+        <v>0.36428818819802472</v>
       </c>
       <c r="B76">
         <v>0.29970651378752045</v>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.53816682480934053</v>
+        <v>0.6056043645176461</v>
       </c>
       <c r="B78">
         <v>0.56159960049374991</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.73474227206522547</v>
+        <v>0.82953374757901521</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>177</v>
@@ -5796,7 +5796,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.60014922797998882</v>
+        <v>0.63618633482191478</v>
       </c>
       <c r="B80">
         <v>0.5886594107387555</v>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.41176387784506657</v>
+        <v>0.41949132496240077</v>
       </c>
       <c r="B82">
         <v>0.4280166643600547</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.348712483468126</v>
+        <v>0.33206652180460594</v>
       </c>
       <c r="B83">
         <v>0.37496942168696695</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.31793121410994618</v>
+        <v>0.36097170816336233</v>
       </c>
       <c r="B84">
         <v>0.31545399938098961</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.4510968380986633</v>
+        <v>0.48378810379430692</v>
       </c>
       <c r="B85">
         <v>0.3739860556317679</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.53925335168939714</v>
+        <v>0.41772706716165831</v>
       </c>
       <c r="B86">
         <v>0.67304879518431593</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.44130376903009466</v>
+        <v>0.43255961483724104</v>
       </c>
       <c r="B87">
         <v>0.45771123107731498</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.71172470290366485</v>
+        <v>0.78990329787123315</v>
       </c>
       <c r="B88">
         <v>0.71935781002191235</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.41996556053811696</v>
+        <v>0.47752404871671367</v>
       </c>
       <c r="B89">
         <v>0.48935264077807117</v>
@@ -5900,7 +5900,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1.0230814995607267</v>
+        <v>1.1309966645908314</v>
       </c>
       <c r="B90">
         <v>1.0568000155575352</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.25495990058691731</v>
+        <v>0.28547759283038032</v>
       </c>
       <c r="B91">
         <v>0.24166078287188886</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.33117663736951586</v>
+        <v>0.34263202677033117</v>
       </c>
       <c r="B92">
         <v>0.29944965854576916</v>
@@ -5933,7 +5933,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.26820456029984568</v>
+        <v>0.28702135120817257</v>
       </c>
       <c r="B93">
         <v>0.25873087048209187</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.45310770538811312</v>
+        <v>0.4630619571898798</v>
       </c>
       <c r="B94">
         <v>0.41990296621735307</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.77318937901362161</v>
+        <v>0.8890228456392143</v>
       </c>
       <c r="B95">
         <v>0.8181151125437498</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1.0258641582132746</v>
+        <v>1.0707910555459716</v>
       </c>
       <c r="B97">
         <v>0.9728131698527932</v>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.63387630943190909</v>
+        <v>0.72463361124705772</v>
       </c>
       <c r="B98">
         <v>0.66110175460546861</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.55811668215759047</v>
+        <v>0.55607954311670937</v>
       </c>
       <c r="B99">
         <v>0.60191552712326235</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.71874756312937749</v>
+        <v>0.94699408668844243</v>
       </c>
       <c r="B100">
         <v>0.62834222984143895</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.4364006686283296</v>
+        <v>0.44226134327096056</v>
       </c>
       <c r="B101">
         <v>0.42675227794402959</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.31356214817082351</v>
+        <v>0.32963981967109623</v>
       </c>
       <c r="B102">
         <v>0.34315863918380041</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0.35857265157635676</v>
+        <v>0.41823129316006258</v>
       </c>
       <c r="B103">
         <v>0.33328531060694166</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0.62167411563553365</v>
+        <v>0.63374477784512906</v>
       </c>
       <c r="B104">
         <v>0.61816127931398257</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.63232021411845118</v>
+        <v>0.72728568615210343</v>
       </c>
       <c r="B106">
         <v>0.61530930301641151</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.37925500946611479</v>
+        <v>0.40659014278684774</v>
       </c>
       <c r="B107">
         <v>0.39202485144955845</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.72637333444192642</v>
+        <v>0.62536484350728394</v>
       </c>
       <c r="B108">
         <v>0.62386488693761477</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>0.26449516725336442</v>
+        <v>0.26808790775868968</v>
       </c>
       <c r="B109">
         <v>0.30205293262074001</v>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.23343617892773566</v>
+        <v>0.33439849609082711</v>
       </c>
       <c r="B110">
         <v>0.21700157650341506</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.50617626023151951</v>
+        <v>0.53712610875294031</v>
       </c>
       <c r="B111">
         <v>0.5326924653148436</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0.29727534387287635</v>
+        <v>0.41021139373190152</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>496</v>
@@ -6138,7 +6138,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>0.37305677543283761</v>
+        <v>0.42130581852806398</v>
       </c>
       <c r="B113">
         <v>0.32410345690773562</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0.440192224697317</v>
+        <v>0.34648936806189501</v>
       </c>
       <c r="B114">
         <v>0.448974198927997</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>0.48779574132543274</v>
+        <v>0.61523578600536744</v>
       </c>
       <c r="B115">
         <v>0.45280884297459884</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>0.49676411150389299</v>
+        <v>0.48340588545097962</v>
       </c>
       <c r="B117">
         <v>0.54005048774140607</v>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>0.86286805408560652</v>
+        <v>0.92852462319215534</v>
       </c>
       <c r="B118">
         <v>0.91208089055781238</v>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>0.57336811469310156</v>
+        <v>0.64970992463408195</v>
       </c>
       <c r="B119">
         <v>0.5694881302023298</v>
@@ -6209,7 +6209,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>0.29325610728580348</v>
+        <v>0.31000405768983141</v>
       </c>
       <c r="B120">
         <v>0.28934774201181718</v>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>0.33980080585261935</v>
+        <v>0.40061088113762938</v>
       </c>
       <c r="B121">
         <v>0.27339903255288206</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>0.34184990468772497</v>
+        <v>0.37741822167356187</v>
       </c>
       <c r="B122">
         <v>0.3064183454077537</v>
@@ -6242,7 +6242,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>0.5151112436177524</v>
+        <v>0.50873878516738091</v>
       </c>
       <c r="B123">
         <v>0.49789705294639369</v>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>0.32230009740679932</v>
+        <v>0.34467927896423922</v>
       </c>
       <c r="B124">
         <v>0.32828187323818092</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>0.59885277676922544</v>
+        <v>0.63087665427547035</v>
       </c>
       <c r="B125">
         <v>0.62862957618104753</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>0.86232537883925497</v>
+        <v>0.87548142565211196</v>
       </c>
       <c r="B126">
         <v>0.91077548689807297</v>
@@ -6286,7 +6286,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>0.30229829114635437</v>
+        <v>0.31497879104805826</v>
       </c>
       <c r="B127">
         <v>0.28643738682213921</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>0.38498865197108828</v>
+        <v>0.47459925677701481</v>
       </c>
       <c r="B128">
         <v>0.38233096933799277</v>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>0.48769336251419088</v>
+        <v>0.49462975130392073</v>
       </c>
       <c r="B129">
         <v>0.55114806135070815</v>
@@ -6319,7 +6319,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>0.90818462422690704</v>
+        <v>0.96112067171583904</v>
       </c>
       <c r="B130">
         <v>0.95853532730198199</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0.34913446838266432</v>
+        <v>0.32843218108150024</v>
       </c>
       <c r="B131">
         <v>0.40699439956817302</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0.3044456821655388</v>
+        <v>0.31955551870395371</v>
       </c>
       <c r="B133">
         <v>0.35038099299120667</v>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0.36200258265470031</v>
+        <v>0.36907850543755177</v>
       </c>
       <c r="B134">
         <v>0.3875234426326794</v>
@@ -6368,7 +6368,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0.37219127628519899</v>
+        <v>0.43599276132242792</v>
       </c>
       <c r="B135">
         <v>0.38751734897632956</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>0.3655322771743495</v>
+        <v>0.37377134643930959</v>
       </c>
       <c r="B136">
         <v>0.38082242891237933</v>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.20203464776575603</v>
+        <v>0.23371619287549697</v>
       </c>
       <c r="B137">
         <v>0.22663901780926524</v>
@@ -6401,7 +6401,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0.40794530368090992</v>
+        <v>0.49242188917904406</v>
       </c>
       <c r="B138">
         <v>0.37762280415399418</v>
@@ -6412,7 +6412,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>0.96624331580622602</v>
+        <v>1.0129068642953234</v>
       </c>
       <c r="B139">
         <v>0.93683382817806327</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>0.27158784066195002</v>
+        <v>0.28238326207744691</v>
       </c>
       <c r="B140">
         <v>0.25229311086879108</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>0.76632034274708472</v>
+        <v>0.85900525613333201</v>
       </c>
       <c r="B141">
         <v>0.81002107139843738</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>0.90889940928448576</v>
+        <v>0.94649493535370166</v>
       </c>
       <c r="B143">
         <v>0.88480459155625901</v>
@@ -6461,7 +6461,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>0.29793277160275283</v>
+        <v>0.32746779777133422</v>
       </c>
       <c r="B144">
         <v>0.32697268496366072</v>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>0.33138879817911215</v>
+        <v>0.39578914144232852</v>
       </c>
       <c r="B145">
         <v>0.35868013150019357</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>0.35963578283464215</v>
+        <v>0.42241378848949568</v>
       </c>
       <c r="B146">
         <v>0.12530576662413845</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>0.31603778658847193</v>
+        <v>0.33225164402030488</v>
       </c>
       <c r="B147">
         <v>0.35017018627985985</v>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>0.88728678165900998</v>
+        <v>1.0774036363636363</v>
       </c>
       <c r="B149">
         <v>0.85923350135711796</v>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>0.54494557069473337</v>
+        <v>0.51489588653157603</v>
       </c>
       <c r="B150">
         <v>0.48599101327577371</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>0.25983978675066977</v>
+        <v>0.27601141858543843</v>
       </c>
       <c r="B151">
         <v>0.23616265296076788</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>0.867992414569832</v>
+        <v>0.86909329963285797</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>225</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>0.47820020477302499</v>
+        <v>0.49572920799255399</v>
       </c>
       <c r="B153">
         <v>0.46136847720847002</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.70193595798167208</v>
+        <v>0.63445356783966711</v>
       </c>
       <c r="B154">
         <v>0.62932460982725014</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>0.37961763267790216</v>
+        <v>0.4114026264509727</v>
       </c>
       <c r="B155">
         <v>0.34637268287709677</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.44097195307559928</v>
+        <v>0.51881805496074729</v>
       </c>
       <c r="B156">
         <v>0.47478783791212215</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.35020708760875857</v>
+        <v>0.3810792185299931</v>
       </c>
       <c r="B157">
         <v>0.33786544563018173</v>
@@ -6606,7 +6606,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>0.40998883295145228</v>
+        <v>0.44240455803353412</v>
       </c>
       <c r="B158">
         <v>0.49669776021451056</v>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>0.5525588405466948</v>
+        <v>0.61648005938039119</v>
       </c>
       <c r="B159">
         <v>0.56986249299218739</v>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>0.77996082306130998</v>
+        <v>0.87886614931829998</v>
       </c>
       <c r="B160">
         <v>0.78326375622455102</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>0.72161652651516761</v>
+        <v>0.62176526247800001</v>
       </c>
       <c r="B161">
         <v>0.60483579312654112</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>0.36851371311073428</v>
+        <v>0.38622896842746157</v>
       </c>
       <c r="B162">
         <v>0.41205958710761786</v>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>0.3815339574390893</v>
+        <v>0.36971177847462294</v>
       </c>
       <c r="B163">
         <v>0.31408142011599183</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>0.3148018725348164</v>
+        <v>0.34676269478231653</v>
       </c>
       <c r="B164">
         <v>0.26938619416455628</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>0.6180858926147591</v>
+        <v>0.65559225089883699</v>
       </c>
       <c r="B165">
         <v>0.62505915776037624</v>
@@ -6694,7 +6694,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>0.71455762272917178</v>
+        <v>0.81169339449590949</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>388</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>0.3960662205438964</v>
+        <v>0.41570173599911048</v>
       </c>
       <c r="B167">
         <v>0.52088043292788466</v>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>0.53510153835166663</v>
+        <v>0.49641819000244264</v>
       </c>
       <c r="B168">
         <v>0.49207659780655466</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>0.34745065343651466</v>
+        <v>0.39232466191566701</v>
       </c>
       <c r="B169">
         <v>0.34126271659826413</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>0.38193873861315875</v>
+        <v>0.37672488800779197</v>
       </c>
       <c r="B170">
         <v>0.4243751414464178</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>0.56173028854947471</v>
+        <v>0.55938155834622127</v>
       </c>
       <c r="B171">
         <v>0.53729198479381979</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>0.27354026981725837</v>
+        <v>0.31201712607479332</v>
       </c>
       <c r="B172">
         <v>0.24843492965003861</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>0.63104302093644948</v>
+        <v>0.62611529962948353</v>
       </c>
       <c r="B173">
         <v>0.60172862740965993</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>0.77600821114134078</v>
+        <v>0.76257110308002229</v>
       </c>
       <c r="B174">
         <v>0.7685144881561452</v>
@@ -6790,7 +6790,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>0.51914034201556625</v>
+        <v>0.57100700479215605</v>
       </c>
       <c r="B175">
         <v>0.55420585951171863</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>0.55548736880934069</v>
+        <v>0.60920907243921474</v>
       </c>
       <c r="B176">
         <v>0.6030244657937498</v>
@@ -6812,7 +6812,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>0.74345070591767626</v>
+        <v>0.88521771329961507</v>
       </c>
       <c r="B177">
         <v>0.7482664802097474</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>0.38548857625330013</v>
+        <v>0.34874662756919911</v>
       </c>
       <c r="B178">
         <v>0.39792475864399562</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>0.44198242998661152</v>
+        <v>0.48899588236573222</v>
       </c>
       <c r="B179">
         <v>0.40455286905297183</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>0.59979017806420476</v>
+        <v>0.67630925508235185</v>
       </c>
       <c r="B181">
         <v>0.6200481458062499</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>0.23550217273975754</v>
+        <v>0.28923414331616337</v>
       </c>
       <c r="B182">
         <v>0.28885598326474304</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0.65926238618578514</v>
+        <v>0.72641536041542221</v>
       </c>
       <c r="B183">
         <v>0.64063975778766657</v>
@@ -6883,7 +6883,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>0.53268935573616294</v>
+        <v>0.63036428557501845</v>
       </c>
       <c r="B184">
         <v>0.51443615772417406</v>
@@ -6899,7 +6899,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0.53747778150906289</v>
+        <v>0.56980751178882594</v>
       </c>
       <c r="B186">
         <v>0.5406723969774333</v>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>0.31181012967683353</v>
+        <v>0.18138333785632396</v>
       </c>
       <c r="B187">
         <v>0.46503370085981394</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>0.30302745633795342</v>
+        <v>0.33531355043748706</v>
       </c>
       <c r="B188">
         <v>0.3367377719277817</v>
@@ -6932,7 +6932,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>0.83309112743631675</v>
+        <v>0.90755953800606048</v>
       </c>
       <c r="B189">
         <v>0.81265466059957359</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1.0335980394467092</v>
+        <v>1.1409111720459864</v>
       </c>
       <c r="B190">
         <v>1.1050021343474721</v>
@@ -6954,7 +6954,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>0.22036248106827822</v>
+        <v>0.31681432932057241</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>41</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>0.23308344624452376</v>
+        <v>0.25174248732351123</v>
       </c>
       <c r="B192">
         <v>0.24809604575860419</v>
@@ -6973,7 +6973,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>0.31786758359492306</v>
+        <v>0.35659533766959273</v>
       </c>
       <c r="B193">
         <v>0.28092932861602204</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>0.31062939313757293</v>
+        <v>0.38098218171863241</v>
       </c>
       <c r="B194">
         <v>0.29727469538790358</v>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>0.40907029251796601</v>
+        <v>0.34287839446274199</v>
       </c>
       <c r="B195">
         <v>0.28226948403107899</v>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>0.31512547374122041</v>
+        <v>0.37307785437373919</v>
       </c>
       <c r="B196">
         <v>0.32204738552947598</v>
@@ -7017,7 +7017,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0.66719102648722062</v>
+        <v>0.72077950031852833</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>368</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>0.6327714526283359</v>
+        <v>0.58714446526580522</v>
       </c>
       <c r="B198">
         <v>0.53620523594333169</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0.27254764421917227</v>
+        <v>0.28242747346209474</v>
       </c>
       <c r="B199">
         <v>0.30103765717068881</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0.27299771706329018</v>
+        <v>0.3237898494823328</v>
       </c>
       <c r="B200">
         <v>0.35220928491605885</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0.44472751526685711</v>
+        <v>0.42952277720285714</v>
       </c>
       <c r="B201">
         <v>0.42001620114144289</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1.0350658138170901</v>
+        <v>1.01947629451752</v>
       </c>
       <c r="B202">
         <v>0.98820669127125205</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1.0441930870547507</v>
+        <v>0.98184746503050735</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>520</v>
@@ -7088,7 +7088,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>0.3299104732113029</v>
+        <v>0.33676568924288608</v>
       </c>
       <c r="B204">
         <v>0.32746985845823728</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>0.28433653885715282</v>
+        <v>0.25460629205030849</v>
       </c>
       <c r="B205">
         <v>0.29053038711384971</v>
@@ -7110,7 +7110,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>0.67634305856093124</v>
+        <v>0.57555420046521444</v>
       </c>
       <c r="B206">
         <v>0.63337947618669299</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>0.7868034635532668</v>
+        <v>0.85476951919427191</v>
       </c>
       <c r="B207">
         <v>0.86830181403780438</v>
@@ -7143,7 +7143,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>0.6308495468989872</v>
+        <v>0.71038872958035193</v>
       </c>
       <c r="B209">
         <v>0.65644999475450683</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>0.25053768682220517</v>
+        <v>0.23892387985957905</v>
       </c>
       <c r="B210">
         <v>0.26616879520160541</v>
@@ -7165,7 +7165,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>0.95358107108385404</v>
+        <v>0.96765264743140778</v>
       </c>
       <c r="B211">
         <v>0.98345646405367249</v>
@@ -7181,7 +7181,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>0.29828492840451781</v>
+        <v>0.31197887555590376</v>
       </c>
       <c r="B213">
         <v>0.28789407706409914</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>0.890102631117342</v>
+        <v>0.96531269293322897</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>262</v>
@@ -7200,7 +7200,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>0.61655066726719299</v>
+        <v>0.56186330047757205</v>
       </c>
       <c r="B215">
         <v>0.593054191376851</v>
@@ -7216,7 +7216,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>0.37678388529415746</v>
+        <v>0.37454249231828313</v>
       </c>
       <c r="B217">
         <v>0.29240038450854638</v>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>0.5731808995093205</v>
+        <v>0.52437883615493952</v>
       </c>
       <c r="B218">
         <v>0.67736205236105507</v>

--- a/data_ext/ppp.xlsx
+++ b/data_ext/ppp.xlsx
@@ -2092,7 +2092,7 @@
   <dimension ref="A1:C271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
